--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr4.xlsx
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ccr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ccr4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H2">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I2">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,39 +552,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05887966666666667</v>
+        <v>0.04581866666666667</v>
       </c>
       <c r="N2">
-        <v>0.176639</v>
+        <v>0.137456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="Q2">
-        <v>0.1936037824645556</v>
+        <v>0.9270251042311112</v>
       </c>
       <c r="R2">
-        <v>1.742434042181</v>
+        <v>8.34322593808</v>
       </c>
       <c r="S2">
-        <v>0.05813306630866938</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="T2">
-        <v>0.05813306630866937</v>
+        <v>0.4376255591461182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.27393966666666</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H3">
-        <v>159.821819</v>
+        <v>60.69743</v>
       </c>
       <c r="I3">
-        <v>0.9418669336913307</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9418669336913306</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05887966666666667</v>
+        <v>0.05887966666666666</v>
       </c>
       <c r="N3">
         <v>0.176639</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="Q3">
-        <v>3.136751809593444</v>
+        <v>1.191281481974444</v>
       </c>
       <c r="R3">
-        <v>28.230766286341</v>
+        <v>10.72153333777</v>
       </c>
       <c r="S3">
-        <v>0.9418669336913307</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="T3">
-        <v>0.9418669336913306</v>
+        <v>0.5623744408538818</v>
       </c>
     </row>
   </sheetData>
